--- a/medicine/Enfance/Les_Ballerines_magiques/Les_Ballerines_magiques.xlsx
+++ b/medicine/Enfance/Les_Ballerines_magiques/Les_Ballerines_magiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Ballerines magiques (The Magic Ballerina en VO) sont les personnages d'une série de romans[1] pour enfants écrite par la danseuse étoile britannique Darcey Bussell et publiés depuis 2008 en Angleterre aux éditions Harper Collins. 
+Les Ballerines magiques (The Magic Ballerina en VO) sont les personnages d'une série de romans pour enfants écrite par la danseuse étoile britannique Darcey Bussell et publiés depuis 2008 en Angleterre aux éditions Harper Collins. 
 En France, la série est éditée depuis 2009 aux éditions Hachette dans la collection Bibliothèque rose.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1969, Darcey Bussell est nommée danseuse étoile en 1989 à l'âge de seulement vingt ans, et est, à l'époque, la plus jeune danseuse à recevoir cet honneur. Au cours de sa prolifique carrière, elle a dansé la plupart des rôles principaux des ballets les plus connus. Depuis sa retraite, Darcey Bussell écrit des livres pour enfants et publie depuis 2008 plusieurs volumes des Ballerines magiques.
 </t>
@@ -544,7 +558,9 @@
           <t>Thème de la série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jeune fille découvre que ses chaussons de danse sont magiques. 
 Darcey Bussell a également coécrit The Young Ballerina avec l'école du Royal Ballet ainsi que l'introduction du livre de Barbara Newman, The Illustrated Book of Ballet, qui est une promotion pour cinq ballets où la ballerine a dansé.
@@ -576,7 +592,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tome 01 : Daphné au royaume enchanté (2009)
